--- a/data-raw/fieldplayers_overall_season_2015.xlsx
+++ b/data-raw/fieldplayers_overall_season_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="14120" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>FC Kansas City</t>
   </si>
   <si>
-    <t>Genoveva AÃ±onma</t>
-  </si>
-  <si>
     <t>gq EQG</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>FW</t>
   </si>
   <si>
-    <t>EstefanÃ­a Banini</t>
-  </si>
-  <si>
     <t>ar ARG</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>Kim DeCesare</t>
   </si>
   <si>
-    <t>Laura del RÃ­o</t>
-  </si>
-  <si>
     <t>es ESP</t>
   </si>
   <si>
@@ -834,6 +825,15 @@
   </si>
   <si>
     <t>McCall Zerboni</t>
+  </si>
+  <si>
+    <t>Genoveva Añonma</t>
+  </si>
+  <si>
+    <t>Estefanía Banini</t>
+  </si>
+  <si>
+    <t>Laura del Río</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P220"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1470,10 +1470,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1516,13 +1516,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1562,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
@@ -1608,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -1652,10 +1652,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -1698,13 +1698,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1744,16 +1744,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2">
         <v>24</v>
@@ -1790,16 +1790,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2">
         <v>24</v>
@@ -1836,16 +1836,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2">
         <v>25</v>
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -1920,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -1960,7 +1960,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -1998,7 +1998,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2007,7 +2007,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2">
         <v>29</v>
@@ -2044,7 +2044,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -2053,7 +2053,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2">
         <v>23</v>
@@ -2082,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -2128,13 +2128,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>33</v>
@@ -2174,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -2183,7 +2183,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2">
         <v>37</v>
@@ -2220,7 +2220,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -2266,7 +2266,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -2275,7 +2275,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2">
         <v>24</v>
@@ -2312,13 +2312,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>23</v>
@@ -2358,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -2404,7 +2404,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -2413,7 +2413,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="2">
         <v>23</v>
@@ -2450,7 +2450,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -2459,7 +2459,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="2">
         <v>28</v>
@@ -2488,13 +2488,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>23</v>
@@ -2534,13 +2534,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>30</v>
@@ -2580,7 +2580,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2">
         <v>31</v>
@@ -2626,13 +2626,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>23</v>
@@ -2672,16 +2672,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2">
         <v>22</v>
@@ -2718,16 +2718,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2">
         <v>21</v>
@@ -2764,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
@@ -2810,7 +2810,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -2819,7 +2819,7 @@
         <v>22</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2">
         <v>21</v>
@@ -2856,13 +2856,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>30</v>
@@ -2902,16 +2902,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2">
         <v>25</v>
@@ -2948,16 +2948,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2">
         <v>28</v>
@@ -2994,13 +2994,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>23</v>
@@ -3040,16 +3040,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2">
         <v>22</v>
@@ -3086,10 +3086,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>29</v>
@@ -3124,16 +3124,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2">
         <v>25</v>
@@ -3170,7 +3170,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -3216,7 +3216,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
@@ -3225,7 +3225,7 @@
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2">
         <v>26</v>
@@ -3262,7 +3262,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
@@ -3271,7 +3271,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2">
         <v>26</v>
@@ -3300,7 +3300,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>21</v>
@@ -3309,7 +3309,7 @@
         <v>22</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2">
         <v>26</v>
@@ -3346,7 +3346,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
@@ -3355,7 +3355,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2">
         <v>23</v>
@@ -3392,16 +3392,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2">
         <v>32</v>
@@ -3438,7 +3438,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
@@ -3447,7 +3447,7 @@
         <v>22</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2">
         <v>22</v>
@@ -3484,7 +3484,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -3493,7 +3493,7 @@
         <v>22</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2">
         <v>22</v>
@@ -3530,7 +3530,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
@@ -3539,7 +3539,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53" s="2">
         <v>22</v>
@@ -3576,16 +3576,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F54" s="2">
         <v>21</v>
@@ -3622,7 +3622,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
@@ -3668,13 +3668,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
@@ -3714,7 +3714,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
@@ -3760,13 +3760,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -3806,16 +3806,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2">
         <v>25</v>
@@ -3852,7 +3852,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" s="2">
         <v>22</v>
@@ -3898,7 +3898,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
@@ -3907,7 +3907,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2">
         <v>23</v>
@@ -3944,16 +3944,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2">
         <v>22</v>
@@ -3990,7 +3990,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
@@ -4036,13 +4036,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -4082,16 +4082,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2">
         <v>24</v>
@@ -4128,16 +4128,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2">
         <v>28</v>
@@ -4174,7 +4174,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
@@ -4183,7 +4183,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2">
         <v>30</v>
@@ -4220,16 +4220,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2">
         <v>20</v>
@@ -4266,7 +4266,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
@@ -4275,7 +4275,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2">
         <v>25</v>
@@ -4312,7 +4312,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
@@ -4321,7 +4321,7 @@
         <v>22</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2">
         <v>24</v>
@@ -4358,13 +4358,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
@@ -4404,16 +4404,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2">
         <v>24</v>
@@ -4450,7 +4450,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
@@ -4459,7 +4459,7 @@
         <v>22</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2">
         <v>25</v>
@@ -4496,13 +4496,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>33</v>
@@ -4542,16 +4542,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2">
         <v>22</v>
@@ -4588,13 +4588,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>33</v>
@@ -4634,13 +4634,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>19</v>
@@ -4680,7 +4680,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -4689,7 +4689,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2">
         <v>29</v>
@@ -4718,13 +4718,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>30</v>
@@ -4764,16 +4764,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2">
         <v>22</v>
@@ -4810,7 +4810,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
@@ -4856,16 +4856,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2">
         <v>28</v>
@@ -4902,7 +4902,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
@@ -4948,7 +4948,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
@@ -4986,13 +4986,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>19</v>
@@ -5032,13 +5032,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>19</v>
@@ -5078,7 +5078,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
@@ -5124,14 +5124,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -5164,7 +5164,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
@@ -5173,7 +5173,7 @@
         <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2">
         <v>24</v>
@@ -5210,16 +5210,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2">
         <v>22</v>
@@ -5256,7 +5256,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
@@ -5265,7 +5265,7 @@
         <v>22</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2">
         <v>25</v>
@@ -5302,7 +5302,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
@@ -5348,13 +5348,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>30</v>
@@ -5394,16 +5394,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2">
         <v>26</v>
@@ -5440,14 +5440,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2">
         <v>21</v>
@@ -5484,16 +5484,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F96" s="2">
         <v>26</v>
@@ -5530,7 +5530,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
@@ -5576,7 +5576,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
@@ -5585,7 +5585,7 @@
         <v>32</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2">
         <v>23</v>
@@ -5622,7 +5622,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
@@ -5660,7 +5660,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
@@ -5698,16 +5698,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2">
         <v>22</v>
@@ -5744,13 +5744,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>33</v>
@@ -5790,16 +5790,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2">
         <v>21</v>
@@ -5836,7 +5836,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
@@ -5845,7 +5845,7 @@
         <v>22</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F104" s="2">
         <v>22</v>
@@ -5882,16 +5882,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F105" s="2">
         <v>25</v>
@@ -5928,13 +5928,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>30</v>
@@ -5974,7 +5974,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
@@ -6020,13 +6020,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>19</v>
@@ -6066,7 +6066,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
@@ -6075,7 +6075,7 @@
         <v>29</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2">
         <v>24</v>
@@ -6104,7 +6104,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
@@ -6113,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2">
         <v>22</v>
@@ -6142,7 +6142,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
@@ -6151,7 +6151,7 @@
         <v>32</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F111" s="2">
         <v>30</v>
@@ -6188,13 +6188,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>19</v>
@@ -6234,10 +6234,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>22</v>
@@ -6280,7 +6280,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
@@ -6289,7 +6289,7 @@
         <v>22</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2">
         <v>21</v>
@@ -6326,7 +6326,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
@@ -6372,13 +6372,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>23</v>
@@ -6418,16 +6418,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F117" s="2">
         <v>21</v>
@@ -6464,16 +6464,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2">
         <v>34</v>
@@ -6502,16 +6502,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2">
         <v>22</v>
@@ -6548,13 +6548,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>33</v>
@@ -6594,13 +6594,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>19</v>
@@ -6640,16 +6640,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2">
         <v>24</v>
@@ -6686,13 +6686,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>33</v>
@@ -6732,16 +6732,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F124" s="2">
         <v>24</v>
@@ -6778,16 +6778,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F125" s="2">
         <v>24</v>
@@ -6824,7 +6824,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
@@ -6870,7 +6870,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
@@ -6879,7 +6879,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F127" s="2">
         <v>32</v>
@@ -6916,16 +6916,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F128" s="2">
         <v>27</v>
@@ -6962,7 +6962,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
@@ -7008,7 +7008,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
@@ -7017,7 +7017,7 @@
         <v>22</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F130" s="2">
         <v>21</v>
@@ -7054,7 +7054,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
@@ -7063,7 +7063,7 @@
         <v>22</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2">
         <v>25</v>
@@ -7100,16 +7100,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2">
         <v>24</v>
@@ -7146,13 +7146,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>23</v>
@@ -7192,16 +7192,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F134" s="2">
         <v>30</v>
@@ -7238,7 +7238,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
@@ -7247,7 +7247,7 @@
         <v>32</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F135" s="2">
         <v>24</v>
@@ -7284,7 +7284,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
@@ -7293,7 +7293,7 @@
         <v>18</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2">
         <v>25</v>
@@ -7330,16 +7330,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F137" s="2">
         <v>21</v>
@@ -7376,16 +7376,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F138" s="2">
         <v>22</v>
@@ -7422,13 +7422,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>23</v>
@@ -7468,14 +7468,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F140" s="2">
         <v>23</v>
@@ -7512,13 +7512,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>23</v>
@@ -7558,10 +7558,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>29</v>
@@ -7596,13 +7596,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>30</v>
@@ -7642,7 +7642,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
@@ -7651,7 +7651,7 @@
         <v>32</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F144" s="2">
         <v>23</v>
@@ -7688,7 +7688,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
@@ -7734,16 +7734,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F146" s="2">
         <v>23</v>
@@ -7780,13 +7780,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>30</v>
@@ -7826,7 +7826,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
@@ -7872,7 +7872,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
@@ -7881,7 +7881,7 @@
         <v>22</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F149" s="2">
         <v>22</v>
@@ -7918,16 +7918,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F150" s="2">
         <v>27</v>
@@ -7964,7 +7964,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
@@ -7973,7 +7973,7 @@
         <v>29</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F151" s="2">
         <v>26</v>
@@ -8002,7 +8002,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
@@ -8011,7 +8011,7 @@
         <v>22</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F152" s="2">
         <v>24</v>
@@ -8048,13 +8048,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>19</v>
@@ -8094,7 +8094,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
@@ -8140,7 +8140,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>25</v>
@@ -8186,13 +8186,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>30</v>
@@ -8232,7 +8232,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
@@ -8241,7 +8241,7 @@
         <v>26</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F157" s="2">
         <v>26</v>
@@ -8278,7 +8278,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
@@ -8324,13 +8324,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>23</v>
@@ -8370,7 +8370,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
@@ -8416,16 +8416,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F161" s="2">
         <v>21</v>
@@ -8462,16 +8462,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F162" s="2">
         <v>21</v>
@@ -8508,16 +8508,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F163" s="2">
         <v>22</v>
@@ -8554,7 +8554,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
@@ -8563,7 +8563,7 @@
         <v>18</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F164" s="2">
         <v>22</v>
@@ -8600,16 +8600,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F165" s="2">
         <v>39</v>
@@ -8646,16 +8646,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F166" s="2">
         <v>22</v>
@@ -8692,13 +8692,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>30</v>
@@ -8738,16 +8738,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F168" s="2">
         <v>21</v>
@@ -8784,16 +8784,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F169" s="2">
         <v>26</v>
@@ -8830,13 +8830,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>23</v>
@@ -8876,13 +8876,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>19</v>
@@ -8922,7 +8922,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
@@ -8968,16 +8968,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F173" s="2">
         <v>23</v>
@@ -9014,7 +9014,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
@@ -9023,7 +9023,7 @@
         <v>18</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F174" s="2">
         <v>29</v>
@@ -9060,16 +9060,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F175" s="2">
         <v>20</v>
@@ -9106,7 +9106,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
@@ -9115,7 +9115,7 @@
         <v>32</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F176" s="2">
         <v>25</v>
@@ -9152,16 +9152,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F177" s="2">
         <v>27</v>
@@ -9198,10 +9198,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>22</v>
@@ -9244,13 +9244,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>23</v>
@@ -9290,7 +9290,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
@@ -9336,7 +9336,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
@@ -9374,7 +9374,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
@@ -9383,7 +9383,7 @@
         <v>22</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F182" s="2">
         <v>26</v>
@@ -9420,13 +9420,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>30</v>
@@ -9466,13 +9466,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>33</v>
@@ -9512,16 +9512,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F185" s="2">
         <v>26</v>
@@ -9558,10 +9558,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>26</v>
@@ -9604,7 +9604,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
@@ -9650,7 +9650,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
@@ -9696,16 +9696,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F189" s="2">
         <v>23</v>
@@ -9742,10 +9742,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>18</v>
@@ -9788,16 +9788,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F191" s="2">
         <v>27</v>
@@ -9834,7 +9834,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
@@ -9843,7 +9843,7 @@
         <v>22</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F192" s="2">
         <v>22</v>
@@ -9880,7 +9880,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
@@ -9889,7 +9889,7 @@
         <v>29</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F193" s="2">
         <v>33</v>
@@ -9918,13 +9918,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>19</v>
@@ -9964,7 +9964,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
@@ -9973,7 +9973,7 @@
         <v>29</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F195" s="2">
         <v>21</v>
@@ -10002,7 +10002,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
@@ -10011,7 +10011,7 @@
         <v>22</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F196" s="2">
         <v>24</v>
@@ -10048,10 +10048,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>22</v>
@@ -10094,16 +10094,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F198" s="2">
         <v>33</v>
@@ -10140,13 +10140,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>30</v>
@@ -10186,14 +10186,14 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F200" s="2">
         <v>21</v>
@@ -10230,13 +10230,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>30</v>
@@ -10276,7 +10276,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
@@ -10322,13 +10322,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>30</v>
@@ -10368,16 +10368,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F204" s="2">
         <v>23</v>
@@ -10414,7 +10414,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
@@ -10423,7 +10423,7 @@
         <v>22</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F205" s="2">
         <v>22</v>
@@ -10460,16 +10460,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F206" s="2">
         <v>22</v>
@@ -10506,16 +10506,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F207" s="2">
         <v>21</v>
@@ -10552,16 +10552,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F208" s="2">
         <v>31</v>
@@ -10598,16 +10598,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F209" s="2">
         <v>32</v>
@@ -10644,16 +10644,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F210" s="2">
         <v>23</v>
@@ -10690,10 +10690,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>26</v>
@@ -10736,13 +10736,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>23</v>
@@ -10782,13 +10782,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>19</v>
@@ -10828,13 +10828,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>30</v>
@@ -10874,7 +10874,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
@@ -10883,7 +10883,7 @@
         <v>22</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F215" s="2">
         <v>26</v>
@@ -10920,7 +10920,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
@@ -10929,7 +10929,7 @@
         <v>32</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F216" s="2">
         <v>24</v>
@@ -10966,16 +10966,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F217" s="2">
         <v>22</v>
@@ -11012,7 +11012,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
@@ -11021,7 +11021,7 @@
         <v>29</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F218" s="2">
         <v>23</v>
@@ -11050,7 +11050,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
@@ -11059,7 +11059,7 @@
         <v>18</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F219" s="2">
         <v>26</v>
@@ -11096,7 +11096,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
